--- a/data/stat probs/reggie bullock jr stat probs - condition.xlsx
+++ b/data/stat probs/reggie bullock jr stat probs - condition.xlsx
@@ -31,16 +31,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 full" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ind 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ind 2023 full" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ind 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ind 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mon 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mon 2023 full" sheetId="34" state="visible" r:id="rId34"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="36" state="visible" r:id="rId36"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gsw 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
@@ -577,28 +577,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -1443,28 +1443,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -2599,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -3465,28 +3465,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3979,28 +3979,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -5231,28 +5231,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -5969,28 +5969,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -6643,28 +6643,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -7317,28 +7317,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -7991,28 +7991,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -8857,28 +8857,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9531,28 +9531,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -10687,28 +10687,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -11137,28 +11137,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -11519,1098 +11519,6 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>90</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>90</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>90</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60</v>
-      </c>
-      <c r="I4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J4" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="n">
-        <v>80</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>70</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>40</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10</v>
-      </c>
-      <c r="H6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>70</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30</v>
-      </c>
-      <c r="E7" t="n">
-        <v>30</v>
-      </c>
-      <c r="F7" t="n">
-        <v>70</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>70</v>
-      </c>
-      <c r="D8" t="n">
-        <v>30</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="n">
-        <v>90</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" t="n">
-        <v>70</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" t="n">
-        <v>90</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" t="n">
-        <v>90</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" t="n">
-        <v>90</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10</v>
-      </c>
-      <c r="D16" t="n">
-        <v>90</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>90</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>90</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>90</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60</v>
-      </c>
-      <c r="I4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J4" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="n">
-        <v>80</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>70</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>40</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10</v>
-      </c>
-      <c r="H6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>70</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30</v>
-      </c>
-      <c r="E7" t="n">
-        <v>30</v>
-      </c>
-      <c r="F7" t="n">
-        <v>70</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>70</v>
-      </c>
-      <c r="D8" t="n">
-        <v>30</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="n">
-        <v>90</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" t="n">
-        <v>70</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" t="n">
-        <v>90</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" t="n">
-        <v>90</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" t="n">
-        <v>90</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10</v>
-      </c>
-      <c r="D16" t="n">
-        <v>90</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12679,28 +11587,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -13188,7 +12096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13257,28 +12165,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -13766,7 +12674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13835,28 +12743,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -14624,6 +13532,1450 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2" t="n">
+        <v>73</v>
+      </c>
+      <c r="I2" t="n">
+        <v>36</v>
+      </c>
+      <c r="J2" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>73</v>
+      </c>
+      <c r="H3" t="n">
+        <v>27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>64</v>
+      </c>
+      <c r="J3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36</v>
+      </c>
+      <c r="H4" t="n">
+        <v>64</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18</v>
+      </c>
+      <c r="H5" t="n">
+        <v>82</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27</v>
+      </c>
+      <c r="J5" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18</v>
+      </c>
+      <c r="J6" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>64</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>64</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>73</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>73</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27</v>
+      </c>
+      <c r="D14" t="n">
+        <v>73</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>27</v>
+      </c>
+      <c r="D15" t="n">
+        <v>73</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>91</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>91</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>91</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>91</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>91</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>91</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>91</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>91</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>91</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>91</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -14701,28 +15053,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -15307,872 +15659,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>73</v>
-      </c>
-      <c r="H3" t="n">
-        <v>27</v>
-      </c>
-      <c r="I3" t="n">
-        <v>64</v>
-      </c>
-      <c r="J3" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36</v>
-      </c>
-      <c r="H4" t="n">
-        <v>64</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36</v>
-      </c>
-      <c r="J4" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>64</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36</v>
-      </c>
-      <c r="E5" t="n">
-        <v>82</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18</v>
-      </c>
-      <c r="H5" t="n">
-        <v>82</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27</v>
-      </c>
-      <c r="J5" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>45</v>
-      </c>
-      <c r="E6" t="n">
-        <v>55</v>
-      </c>
-      <c r="F6" t="n">
-        <v>45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>45</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55</v>
-      </c>
-      <c r="E7" t="n">
-        <v>36</v>
-      </c>
-      <c r="F7" t="n">
-        <v>64</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>36</v>
-      </c>
-      <c r="D8" t="n">
-        <v>64</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>91</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>36</v>
-      </c>
-      <c r="D9" t="n">
-        <v>64</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>27</v>
-      </c>
-      <c r="D10" t="n">
-        <v>73</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>27</v>
-      </c>
-      <c r="D11" t="n">
-        <v>73</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>27</v>
-      </c>
-      <c r="D12" t="n">
-        <v>73</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>27</v>
-      </c>
-      <c r="D13" t="n">
-        <v>73</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>27</v>
-      </c>
-      <c r="D14" t="n">
-        <v>73</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>27</v>
-      </c>
-      <c r="D15" t="n">
-        <v>73</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>91</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>91</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>91</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>91</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>91</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>91</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>91</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>91</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9</v>
-      </c>
-      <c r="D24" t="n">
-        <v>91</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>9</v>
-      </c>
-      <c r="D25" t="n">
-        <v>91</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>9</v>
-      </c>
-      <c r="D26" t="n">
-        <v>91</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16241,28 +15727,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16750,585 +16236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>50</v>
-      </c>
-      <c r="J6" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>50</v>
-      </c>
-      <c r="J7" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" t="n">
-        <v>50</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17397,28 +16305,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17874,7 +16782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17943,28 +16851,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18412,6 +17320,1034 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36</v>
+      </c>
+      <c r="H2" t="n">
+        <v>64</v>
+      </c>
+      <c r="I2" t="n">
+        <v>27</v>
+      </c>
+      <c r="J2" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>64</v>
+      </c>
+      <c r="H3" t="n">
+        <v>36</v>
+      </c>
+      <c r="I3" t="n">
+        <v>73</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36</v>
+      </c>
+      <c r="H4" t="n">
+        <v>64</v>
+      </c>
+      <c r="I4" t="n">
+        <v>55</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27</v>
+      </c>
+      <c r="H5" t="n">
+        <v>73</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36</v>
+      </c>
+      <c r="J5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>73</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>64</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>64</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>55</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>91</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45</v>
+      </c>
+      <c r="D10" t="n">
+        <v>55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>91</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>73</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18</v>
+      </c>
+      <c r="D14" t="n">
+        <v>82</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>91</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36</v>
+      </c>
+      <c r="H2" t="n">
+        <v>64</v>
+      </c>
+      <c r="I2" t="n">
+        <v>27</v>
+      </c>
+      <c r="J2" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>64</v>
+      </c>
+      <c r="H3" t="n">
+        <v>36</v>
+      </c>
+      <c r="I3" t="n">
+        <v>73</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27</v>
+      </c>
+      <c r="E4" t="n">
+        <v>91</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36</v>
+      </c>
+      <c r="H4" t="n">
+        <v>64</v>
+      </c>
+      <c r="I4" t="n">
+        <v>55</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27</v>
+      </c>
+      <c r="H5" t="n">
+        <v>73</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36</v>
+      </c>
+      <c r="J5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>73</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>64</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>64</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>82</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>55</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>91</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45</v>
+      </c>
+      <c r="D10" t="n">
+        <v>55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>91</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>73</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18</v>
+      </c>
+      <c r="D14" t="n">
+        <v>82</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>91</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>100</v>
       </c>
     </row>
@@ -18489,16 +18425,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18507,10 +18443,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18779,16 +18715,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18797,10 +18733,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19069,28 +19005,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -19647,28 +19583,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -20225,28 +20161,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20579,28 +20515,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -21253,28 +21189,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21607,28 +21543,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22153,28 +22089,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22699,28 +22635,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23437,28 +23373,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24175,28 +24111,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24497,28 +24433,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24819,28 +24755,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -25525,28 +25461,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -26231,28 +26167,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -26425,28 +26361,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -27291,28 +27227,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27485,28 +27421,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -27903,28 +27839,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -28321,28 +28257,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28803,28 +28739,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29285,28 +29221,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -29703,28 +29639,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -30121,28 +30057,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30315,28 +30251,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30509,28 +30445,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -30863,28 +30799,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -31729,28 +31665,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -32083,28 +32019,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -32757,28 +32693,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -33431,28 +33367,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -33689,28 +33625,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -33947,28 +33883,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34333,28 +34269,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34719,28 +34655,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35009,28 +34945,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35299,28 +35235,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -36165,28 +36101,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36455,28 +36391,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -37321,28 +37257,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37803,28 +37739,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38285,28 +38221,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -38543,28 +38479,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -38801,28 +38737,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -39155,28 +39091,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -39509,28 +39445,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39927,28 +39863,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40345,28 +40281,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40827,28 +40763,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41117,28 +41053,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41599,28 +41535,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41857,28 +41793,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42115,22 +42051,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -42341,22 +42277,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -42567,16 +42503,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -42585,10 +42521,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -42857,16 +42793,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -42875,10 +42811,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -43147,28 +43083,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -43533,28 +43469,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -43919,28 +43855,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44337,28 +44273,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44627,28 +44563,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
